--- a/Amazon_project/testCase/Amazon_TC.xlsx
+++ b/Amazon_project/testCase/Amazon_TC.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="143">
   <si>
     <t>Test_Case_ID</t>
   </si>
@@ -46,15 +46,9 @@
     <t>TC_01</t>
   </si>
   <si>
-    <t>SignIn to the application</t>
-  </si>
-  <si>
     <t>Anirban Maity</t>
   </si>
   <si>
-    <t>Sign in Successfully</t>
-  </si>
-  <si>
     <t>TC_02</t>
   </si>
   <si>
@@ -62,19 +56,6 @@
   </si>
   <si>
     <t>TC_03</t>
-  </si>
-  <si>
-    <t>Amazon_Signin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.Open the browser and 
-enter the url.
-2.click on signin major tab.
-3.Enter mobile number and click on continue button.
-4.It will be redirecting to another page and askin for password.
-5.Enter the password and 
-click on Signin button.
-</t>
   </si>
   <si>
     <r>
@@ -112,34 +93,6 @@
     </r>
   </si>
   <si>
-    <t>User should be Successfully 
-sign in to the amazon application.</t>
-  </si>
-  <si>
-    <t>Amazon_Signout</t>
-  </si>
-  <si>
-    <t>Sign out from the amazon application.</t>
-  </si>
-  <si>
-    <t>1.Open the browser and 
-enter the url.
-2.Mouse hover to profile name.
-3.click on sign out link.
-4.Close the browser.</t>
-  </si>
-  <si>
-    <t>URL: https://www.amazon.in</t>
-  </si>
-  <si>
-    <t>User should be Successfully 
-Sign out from amazon
-application.</t>
-  </si>
-  <si>
-    <t>Sign out Successfully</t>
-  </si>
-  <si>
     <t>Amazon_auto
 suggestions</t>
   </si>
@@ -252,9 +205,6 @@
 is displayed.</t>
   </si>
   <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Amazon_Price_Filter</t>
   </si>
   <si>
@@ -513,9 +463,6 @@
     <t>Child menu should be  appeared.</t>
   </si>
   <si>
-    <t>Child menu is displayed.</t>
-  </si>
-  <si>
     <t>TC_16</t>
   </si>
   <si>
@@ -587,11 +534,6 @@
 5.Enter the name and click 
 on create list button.
 6.Close the browser.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL: https://www.amazon.in/
-Wish list Name: MY LIST
-</t>
   </si>
   <si>
     <t>New wish list should be created.</t>
@@ -648,6 +590,95 @@
   </si>
   <si>
     <t>User is scrolling successfully</t>
+  </si>
+  <si>
+    <t>Amazon_Signin_Signout</t>
+  </si>
+  <si>
+    <t>SignIn to the application 
+and Signout successfully
+from the application.</t>
+  </si>
+  <si>
+    <t>1.Open the browser and 
+enter the url.
+2.click on signin major tab.
+3.Enter mobile number and click on continue button.
+4.It will be redirecting to another page and askin for password.
+5.Enter the password and 
+click on Signin button.
+6.Mouse hover to profile name.
+7.click on sign out link.
+8.Close the browser.</t>
+  </si>
+  <si>
+    <t>User should be Successfully 
+sign in to the amazon application and sign out from the Amazon application.</t>
+  </si>
+  <si>
+    <t>Sign in and Signout 
+Successfully</t>
+  </si>
+  <si>
+    <t>Amazon_Delete_cart</t>
+  </si>
+  <si>
+    <t>Go to cart pge and delete the item from the cart page.</t>
+  </si>
+  <si>
+    <t>1.Open the browser and enter the URL.
+2.Click on the cart page.
+3.In the cart page go to a 
+particular product and click
+on delete button.</t>
+  </si>
+  <si>
+    <t>The product should be 
+removed from cart page.</t>
+  </si>
+  <si>
+    <t>The product is removed from cart page.</t>
+  </si>
+  <si>
+    <t>Child menu is displayed and print allthe options in the console.</t>
+  </si>
+  <si>
+    <t>URL: https://www.amazon.in/
+Product name: Tshirt for man
+Address Details:
+Full Name: Anirban
+Mobile No: 8759064707
+Address line1: 39/A, Dumdum Road
+Address line2: Dumdum
+Landmark:Dumdum Metro
+Station.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL: https://www.amazon.in/
+Wish list Name: MY-LIST
+</t>
+  </si>
+  <si>
+    <t>Amazon_Job_Search</t>
+  </si>
+  <si>
+    <t>Serch for software 
+development in Amazon.</t>
+  </si>
+  <si>
+    <t>1.Open the browser and enter the URL.
+2.click on career link visible 
+on top of the buttom page.
+3.click on hambargur icon on the job search page.
+4.click on job categories.
+5.click on Software Development major tab.
+6.Close the browser.</t>
+  </si>
+  <si>
+    <t>Software Development job page should be opened.</t>
+  </si>
+  <si>
+    <t>Software Development job page is opened.</t>
   </si>
 </sst>
 </file>
@@ -1021,8 +1052,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="B18" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1067,570 +1098,593 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="225" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="90" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="G3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="180" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="195" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>23</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="180" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="F7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="195" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B8" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="225" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="B9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>55</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="210" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>60</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="2" t="s">
+      <c r="B10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="B11" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="165" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>63</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="B12" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="B13" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>76</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="165" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="B14" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="135" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>83</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="B15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="B16" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="2" t="s">
+      <c r="B17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>101</v>
       </c>
-      <c r="H15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>102</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B18" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="C18" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="D18" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E18" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>114</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="H18" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>113</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="C20" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="E20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="G20" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>127</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="H20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>133</v>
+        <v>119</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" display="URL:https://www.flipkart.com/_x000a_ Mob: 9123456780_x000a_OTP:0000_x000a_"/>
-    <hyperlink ref="E3" r:id="rId2" display="URL:https://www.flipkart.com/_x000a__x000a_Email:acbxyz@gmail.com_x000a_OTP:1234"/>
+    <hyperlink ref="E4" r:id="rId2"/>
     <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E6" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>